--- a/environhub/subansirilowerproject.xlsx
+++ b/environhub/subansirilowerproject.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView windowWidth="22943" windowHeight="9467" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,12 @@
   <definedNames>
     <definedName name="OLE_LINK1" localSheetId="0">Summary!$A$1</definedName>
   </definedNames>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256">
   <si>
     <t>Summary</t>
   </si>
@@ -30,13 +30,22 @@
     <t>A mega hydel project under construction on the Subansiri, a tributary of the Brahmaputra, The 2,000 MW Subansiri Lower Project is the biggest of the three dams under construction in Arunachal Pradesh. In 2004, the Supreme Court had allowed Subansiri Lower but banned more dams on the Subansiri because no one had assessed their cumulative impact downstream. It can be predicted that the mega hydro dams constructed in Arunachal rivers will create ecological catastrophe in downstream Assam and affect geography and demography in Dhemaji, Lakhimpur, Majuli and Jorhat districts in near future. Akhil Gogoi president of KMSS went on an indefinite hunger-strike in Guwahati. He demanded the release of 27 anti-dam protesters. According to the officials they were planning to stop construction machinery from being transported to National Hydroelectric Power Corporation's Lower Subansiri Hydroelectric Project site near the Assam and Arunachal Pradesh border.</t>
   </si>
   <si>
+    <t>Event</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
     <t xml:space="preserve">Time </t>
   </si>
   <si>
-    <t>Event</t>
-  </si>
-  <si>
-    <t>Description</t>
+    <t>Actions Taken</t>
+  </si>
+  <si>
+    <t> Work on Subansiri Lower began</t>
+  </si>
+  <si>
+    <t>Media Intervention</t>
   </si>
   <si>
     <t>Dams in Assam got politicised after work on Subansiri Lower began in 2005</t>
@@ -45,6 +54,9 @@
     <t>AASU led protests in Dhemaji and Lakhimpur districts demanding an assessment of the impact of Subansiri Lower</t>
   </si>
   <si>
+    <t>Political Intervention</t>
+  </si>
+  <si>
     <t xml:space="preserve"> The agitation led to a tripartite meeting between AASU, NHPC (the company building Subansiri Lower) and the Assam government.     </t>
   </si>
   <si>
@@ -54,6 +66,12 @@
     <t>the team recommended lowering the height of the dam and making technical changes in its structure to increase river flow</t>
   </si>
   <si>
+    <t>Akhil Gogoi has been on fast since May 19 demanding a halt to construction of all mega river dams until impact studies are conducted and a consensus decision is arrived at in consultation with the people</t>
+  </si>
+  <si>
+    <t> Akhil Gogoi broke his fast after nine days at the request of the Gandhian leader, Anna Hazaare but said that his campaign against big dams would continue</t>
+  </si>
+  <si>
     <t>Protests in different parts of Assam against the Lower Subansiri Hydroelectric Project in neighbouring Arunachal Pradesh </t>
   </si>
   <si>
@@ -63,10 +81,10 @@
     <t>AJYCP stages massive protest against Lower Subansiri project</t>
   </si>
   <si>
-    <t> Akhil Gogoi broke his fast after nine days at the request of the Gandhian leader, Anna Hazaare but said that his campaign against big dams would continue</t>
-  </si>
-  <si>
-    <t>Akhil Gogoi has been on fast since May 19 demanding a halt to construction of all mega river dams until impact studies are conducted and a consensus decision is arrived at in consultation with the people</t>
+    <t>Court Judgement</t>
+  </si>
+  <si>
+    <t>Green tribunal quashes appeal to stall hydroelectric projects at Lower Subanisri </t>
   </si>
   <si>
     <t xml:space="preserve">Name </t>
@@ -81,9 +99,27 @@
     <t>Samujjal Bhattacharya</t>
   </si>
   <si>
+    <t xml:space="preserve">Adviser,  AASU </t>
+  </si>
+  <si>
+    <t>Arunachal Pradesh is set to gain revenue from these projects, but Assam will be the victim if anything goes wrong</t>
+  </si>
+  <si>
     <t>Priyanku Pratim Chutiya</t>
   </si>
   <si>
+    <t>President, Dhemaji district AJYCP</t>
+  </si>
+  <si>
+    <t>We will continue our agitation in protest against such dam construction and the government will be responsible for any adverse situation for it</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
     <t>Arunachal Pradesh</t>
   </si>
   <si>
@@ -192,558 +228,561 @@
     <t>Tripura</t>
   </si>
   <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>2004-01</t>
+  </si>
+  <si>
+    <t>2004-02</t>
+  </si>
+  <si>
+    <t>2004-03</t>
+  </si>
+  <si>
+    <t>2004-04</t>
+  </si>
+  <si>
+    <t>2004-05</t>
+  </si>
+  <si>
+    <t>2004-06</t>
+  </si>
+  <si>
+    <t>2004-07</t>
+  </si>
+  <si>
+    <t>2004-08</t>
+  </si>
+  <si>
+    <t>2004-09</t>
+  </si>
+  <si>
+    <t>2004-10</t>
+  </si>
+  <si>
+    <t>2004-11</t>
+  </si>
+  <si>
+    <t>2004-12</t>
+  </si>
+  <si>
+    <t>2005-01</t>
+  </si>
+  <si>
+    <t>2005-02</t>
+  </si>
+  <si>
+    <t>2005-03</t>
+  </si>
+  <si>
+    <t>2005-04</t>
+  </si>
+  <si>
+    <t>2005-05</t>
+  </si>
+  <si>
+    <t>2005-06</t>
+  </si>
+  <si>
+    <t>2005-07</t>
+  </si>
+  <si>
+    <t>2005-08</t>
+  </si>
+  <si>
+    <t>2005-09</t>
+  </si>
+  <si>
+    <t>2005-10</t>
+  </si>
+  <si>
+    <t>2005-11</t>
+  </si>
+  <si>
+    <t>2005-12</t>
+  </si>
+  <si>
+    <t>2006-01</t>
+  </si>
+  <si>
+    <t>2006-02</t>
+  </si>
+  <si>
+    <t>2006-03</t>
+  </si>
+  <si>
+    <t>2006-04</t>
+  </si>
+  <si>
+    <t>2006-05</t>
+  </si>
+  <si>
+    <t>2006-06</t>
+  </si>
+  <si>
+    <t>2006-07</t>
+  </si>
+  <si>
+    <t>2006-08</t>
+  </si>
+  <si>
+    <t>2006-09</t>
+  </si>
+  <si>
+    <t>2006-10</t>
+  </si>
+  <si>
+    <t>2006-11</t>
+  </si>
+  <si>
+    <t>2006-12</t>
+  </si>
+  <si>
+    <t>2007-01</t>
+  </si>
+  <si>
+    <t>2007-02</t>
+  </si>
+  <si>
+    <t>2007-03</t>
+  </si>
+  <si>
+    <t>2007-04</t>
+  </si>
+  <si>
+    <t>2007-05</t>
+  </si>
+  <si>
+    <t>2007-06</t>
+  </si>
+  <si>
+    <t>2007-07</t>
+  </si>
+  <si>
+    <t>2007-08</t>
+  </si>
+  <si>
+    <t>2007-09</t>
+  </si>
+  <si>
+    <t>2007-10</t>
+  </si>
+  <si>
+    <t>2007-11</t>
+  </si>
+  <si>
+    <t>2007-12</t>
+  </si>
+  <si>
+    <t>2008-01</t>
+  </si>
+  <si>
+    <t>2008-02</t>
+  </si>
+  <si>
+    <t>2008-03</t>
+  </si>
+  <si>
+    <t>2008-04</t>
+  </si>
+  <si>
+    <t>2008-05</t>
+  </si>
+  <si>
+    <t>2008-06</t>
+  </si>
+  <si>
+    <t>2008-07</t>
+  </si>
+  <si>
+    <t>2008-08</t>
+  </si>
+  <si>
+    <t>2008-09</t>
+  </si>
+  <si>
+    <t>2008-10</t>
+  </si>
+  <si>
+    <t>2008-11</t>
+  </si>
+  <si>
+    <t>2008-12</t>
+  </si>
+  <si>
+    <t>2009-01</t>
+  </si>
+  <si>
+    <t>2009-02</t>
+  </si>
+  <si>
+    <t>2009-03</t>
+  </si>
+  <si>
+    <t>2009-04</t>
+  </si>
+  <si>
+    <t>2009-05</t>
+  </si>
+  <si>
+    <t>2009-06</t>
+  </si>
+  <si>
+    <t>2009-07</t>
+  </si>
+  <si>
+    <t>2009-08</t>
+  </si>
+  <si>
+    <t>2009-09</t>
+  </si>
+  <si>
+    <t>2009-10</t>
+  </si>
+  <si>
+    <t>2009-11</t>
+  </si>
+  <si>
+    <t>2009-12</t>
+  </si>
+  <si>
+    <t>2010-01</t>
+  </si>
+  <si>
+    <t>2010-02</t>
+  </si>
+  <si>
+    <t>2010-03</t>
+  </si>
+  <si>
+    <t>2010-04</t>
+  </si>
+  <si>
+    <t>2010-05</t>
+  </si>
+  <si>
+    <t>2010-06</t>
+  </si>
+  <si>
+    <t>2010-07</t>
+  </si>
+  <si>
+    <t>2010-08</t>
+  </si>
+  <si>
+    <t>2010-09</t>
+  </si>
+  <si>
+    <t>2010-10</t>
+  </si>
+  <si>
+    <t>2010-11</t>
+  </si>
+  <si>
+    <t>2010-12</t>
+  </si>
+  <si>
+    <t>2011-01</t>
+  </si>
+  <si>
+    <t>2011-02</t>
+  </si>
+  <si>
+    <t>2011-03</t>
+  </si>
+  <si>
+    <t>2011-04</t>
+  </si>
+  <si>
+    <t>2011-05</t>
+  </si>
+  <si>
+    <t>2011-06</t>
+  </si>
+  <si>
+    <t>2011-07</t>
+  </si>
+  <si>
+    <t>2011-08</t>
+  </si>
+  <si>
+    <t>2011-09</t>
+  </si>
+  <si>
+    <t>2011-10</t>
+  </si>
+  <si>
+    <t>2011-11</t>
+  </si>
+  <si>
+    <t>2011-12</t>
+  </si>
+  <si>
+    <t>2012-01</t>
+  </si>
+  <si>
+    <t>2012-02</t>
+  </si>
+  <si>
+    <t>2012-03</t>
+  </si>
+  <si>
+    <t>2012-04</t>
+  </si>
+  <si>
+    <t>2012-05</t>
+  </si>
+  <si>
+    <t>2012-06</t>
+  </si>
+  <si>
+    <t>2012-07</t>
+  </si>
+  <si>
+    <t>2012-08</t>
+  </si>
+  <si>
+    <t>2012-09</t>
+  </si>
+  <si>
+    <t>2012-10</t>
+  </si>
+  <si>
+    <t>2012-11</t>
+  </si>
+  <si>
+    <t>2012-12</t>
+  </si>
+  <si>
+    <t>2013-01</t>
+  </si>
+  <si>
+    <t>2013-02</t>
+  </si>
+  <si>
+    <t>2013-03</t>
+  </si>
+  <si>
+    <t>2013-04</t>
+  </si>
+  <si>
+    <t>2013-05</t>
+  </si>
+  <si>
+    <t>2013-06</t>
+  </si>
+  <si>
+    <t>2013-07</t>
+  </si>
+  <si>
+    <t>2013-08</t>
+  </si>
+  <si>
+    <t>2013-09</t>
+  </si>
+  <si>
+    <t>2013-10</t>
+  </si>
+  <si>
+    <t>2013-11</t>
+  </si>
+  <si>
+    <t>2013-12</t>
+  </si>
+  <si>
+    <t>2014-01</t>
+  </si>
+  <si>
+    <t>2014-02</t>
+  </si>
+  <si>
+    <t>2014-03</t>
+  </si>
+  <si>
+    <t>2014-04</t>
+  </si>
+  <si>
+    <t>2014-05</t>
+  </si>
+  <si>
+    <t>2014-06</t>
+  </si>
+  <si>
+    <t>2014-07</t>
+  </si>
+  <si>
+    <t>2014-08</t>
+  </si>
+  <si>
+    <t>2014-09</t>
+  </si>
+  <si>
+    <t>2014-10</t>
+  </si>
+  <si>
+    <t>2014-11</t>
+  </si>
+  <si>
+    <t>2014-12</t>
+  </si>
+  <si>
+    <t>2015-01</t>
+  </si>
+  <si>
+    <t>2015-02</t>
+  </si>
+  <si>
+    <t>2015-03</t>
+  </si>
+  <si>
+    <t>2015-04</t>
+  </si>
+  <si>
+    <t>2015-05</t>
+  </si>
+  <si>
+    <t>2015-06</t>
+  </si>
+  <si>
+    <t>2015-07</t>
+  </si>
+  <si>
+    <t>2015-08</t>
+  </si>
+  <si>
+    <t>2015-09</t>
+  </si>
+  <si>
+    <t>2015-10</t>
+  </si>
+  <si>
+    <t>2015-11</t>
+  </si>
+  <si>
+    <t>2015-12</t>
+  </si>
+  <si>
+    <t>2016-01</t>
+  </si>
+  <si>
+    <t>2016-02</t>
+  </si>
+  <si>
+    <t>2016-03</t>
+  </si>
+  <si>
+    <t>2016-04</t>
+  </si>
+  <si>
+    <t>2016-05</t>
+  </si>
+  <si>
+    <t>2016-06</t>
+  </si>
+  <si>
+    <t>2016-07</t>
+  </si>
+  <si>
+    <t>2016-08</t>
+  </si>
+  <si>
+    <t>2016-09</t>
+  </si>
+  <si>
+    <t>2016-10</t>
+  </si>
+  <si>
+    <t>2016-11</t>
+  </si>
+  <si>
+    <t>2016-12</t>
+  </si>
+  <si>
+    <t>2017-01</t>
+  </si>
+  <si>
+    <t>2017-02</t>
+  </si>
+  <si>
+    <t>2017-03</t>
+  </si>
+  <si>
+    <t>2017-04</t>
+  </si>
+  <si>
+    <t>2017-05</t>
+  </si>
+  <si>
+    <t>2017-06</t>
+  </si>
+  <si>
+    <t>2017-07</t>
+  </si>
+  <si>
+    <t>2017-08</t>
+  </si>
+  <si>
+    <t>2017-09</t>
+  </si>
+  <si>
+    <t>2017-10</t>
+  </si>
+  <si>
+    <t>2017-11</t>
+  </si>
+  <si>
+    <t>2017-12</t>
+  </si>
+  <si>
+    <t>2018-01</t>
+  </si>
+  <si>
+    <t>2018-02</t>
+  </si>
+  <si>
+    <t>2018-03</t>
+  </si>
+  <si>
+    <t>2018-04</t>
+  </si>
+  <si>
+    <t>2018-05</t>
+  </si>
+  <si>
+    <t>2018-06</t>
+  </si>
+  <si>
+    <t>2018-07</t>
+  </si>
+  <si>
+    <t>2018-08</t>
+  </si>
+  <si>
+    <t>2018-09</t>
+  </si>
+  <si>
+    <t>2018-10</t>
+  </si>
+  <si>
+    <t>2018-11</t>
+  </si>
+  <si>
+    <t>2018-12</t>
+  </si>
+  <si>
+    <t>2019-01</t>
+  </si>
+  <si>
+    <t>2019-02</t>
+  </si>
+  <si>
+    <t>2019-03</t>
+  </si>
+  <si>
     <t>2019-04</t>
   </si>
   <si>
-    <t>2019-03</t>
-  </si>
-  <si>
-    <t>2019-02</t>
-  </si>
-  <si>
-    <t>2019-01</t>
-  </si>
-  <si>
-    <t>2018-12</t>
-  </si>
-  <si>
-    <t>2018-11</t>
-  </si>
-  <si>
-    <t>2018-10</t>
-  </si>
-  <si>
-    <t>2018-09</t>
-  </si>
-  <si>
-    <t>2018-08</t>
-  </si>
-  <si>
-    <t>2018-07</t>
-  </si>
-  <si>
-    <t>2018-06</t>
-  </si>
-  <si>
-    <t>2018-05</t>
-  </si>
-  <si>
-    <t>2018-04</t>
-  </si>
-  <si>
-    <t>2018-03</t>
-  </si>
-  <si>
-    <t>2018-02</t>
-  </si>
-  <si>
-    <t>2018-01</t>
-  </si>
-  <si>
-    <t>2017-12</t>
-  </si>
-  <si>
-    <t>2017-11</t>
-  </si>
-  <si>
-    <t>2017-10</t>
-  </si>
-  <si>
-    <t>2017-09</t>
-  </si>
-  <si>
-    <t>2017-08</t>
-  </si>
-  <si>
-    <t>2017-07</t>
-  </si>
-  <si>
-    <t>2017-06</t>
-  </si>
-  <si>
-    <t>2017-05</t>
-  </si>
-  <si>
-    <t>2017-04</t>
-  </si>
-  <si>
-    <t>2017-03</t>
-  </si>
-  <si>
-    <t>2017-02</t>
-  </si>
-  <si>
-    <t>2017-01</t>
-  </si>
-  <si>
-    <t>2016-12</t>
-  </si>
-  <si>
-    <t>2016-11</t>
-  </si>
-  <si>
-    <t>2016-10</t>
-  </si>
-  <si>
-    <t>2016-09</t>
-  </si>
-  <si>
-    <t>2016-08</t>
-  </si>
-  <si>
-    <t>2016-07</t>
-  </si>
-  <si>
-    <t>2016-06</t>
-  </si>
-  <si>
-    <t>2016-05</t>
-  </si>
-  <si>
-    <t>2016-04</t>
-  </si>
-  <si>
-    <t>2016-03</t>
-  </si>
-  <si>
-    <t>2016-02</t>
-  </si>
-  <si>
-    <t>2016-01</t>
-  </si>
-  <si>
-    <t>2015-12</t>
-  </si>
-  <si>
-    <t>2015-11</t>
-  </si>
-  <si>
-    <t>2015-10</t>
-  </si>
-  <si>
-    <t>2015-09</t>
-  </si>
-  <si>
-    <t>2015-08</t>
-  </si>
-  <si>
-    <t>2015-07</t>
-  </si>
-  <si>
-    <t>2015-06</t>
-  </si>
-  <si>
-    <t>2015-05</t>
-  </si>
-  <si>
-    <t>2015-04</t>
-  </si>
-  <si>
-    <t>2015-03</t>
-  </si>
-  <si>
-    <t>2015-02</t>
-  </si>
-  <si>
-    <t>2015-01</t>
-  </si>
-  <si>
-    <t>2014-12</t>
-  </si>
-  <si>
-    <t>2014-11</t>
-  </si>
-  <si>
-    <t>2014-10</t>
-  </si>
-  <si>
-    <t>2014-09</t>
-  </si>
-  <si>
-    <t>2014-08</t>
-  </si>
-  <si>
-    <t>2014-07</t>
-  </si>
-  <si>
-    <t>2014-06</t>
-  </si>
-  <si>
-    <t>2014-05</t>
-  </si>
-  <si>
-    <t>2014-04</t>
-  </si>
-  <si>
-    <t>2014-03</t>
-  </si>
-  <si>
-    <t>2014-02</t>
-  </si>
-  <si>
-    <t>2014-01</t>
-  </si>
-  <si>
-    <t>2013-12</t>
-  </si>
-  <si>
-    <t>2013-11</t>
-  </si>
-  <si>
-    <t>2013-10</t>
-  </si>
-  <si>
-    <t>2013-09</t>
-  </si>
-  <si>
-    <t>2013-08</t>
-  </si>
-  <si>
-    <t>2013-07</t>
-  </si>
-  <si>
-    <t>2013-06</t>
-  </si>
-  <si>
-    <t>2013-05</t>
-  </si>
-  <si>
-    <t>2013-04</t>
-  </si>
-  <si>
-    <t>2013-03</t>
-  </si>
-  <si>
-    <t>2013-02</t>
-  </si>
-  <si>
-    <t>2013-01</t>
-  </si>
-  <si>
-    <t>2012-12</t>
-  </si>
-  <si>
-    <t>2012-11</t>
-  </si>
-  <si>
-    <t>2012-10</t>
-  </si>
-  <si>
-    <t>2012-09</t>
-  </si>
-  <si>
-    <t>2012-08</t>
-  </si>
-  <si>
-    <t>2012-07</t>
-  </si>
-  <si>
-    <t>2012-06</t>
-  </si>
-  <si>
-    <t>2012-05</t>
-  </si>
-  <si>
-    <t>2012-04</t>
-  </si>
-  <si>
-    <t>2012-03</t>
-  </si>
-  <si>
-    <t>2012-02</t>
-  </si>
-  <si>
-    <t>2012-01</t>
-  </si>
-  <si>
-    <t>2011-12</t>
-  </si>
-  <si>
-    <t>2011-11</t>
-  </si>
-  <si>
-    <t>2011-10</t>
-  </si>
-  <si>
-    <t>2011-09</t>
-  </si>
-  <si>
-    <t>2011-08</t>
-  </si>
-  <si>
-    <t>2011-07</t>
-  </si>
-  <si>
-    <t>2011-06</t>
-  </si>
-  <si>
-    <t>2011-05</t>
-  </si>
-  <si>
-    <t>2011-04</t>
-  </si>
-  <si>
-    <t>2011-03</t>
-  </si>
-  <si>
-    <t>2011-02</t>
-  </si>
-  <si>
-    <t>2011-01</t>
-  </si>
-  <si>
-    <t>2010-12</t>
-  </si>
-  <si>
-    <t>2010-11</t>
-  </si>
-  <si>
-    <t>2010-10</t>
-  </si>
-  <si>
-    <t>2010-09</t>
-  </si>
-  <si>
-    <t>2010-08</t>
-  </si>
-  <si>
-    <t>2010-07</t>
-  </si>
-  <si>
-    <t>2010-06</t>
-  </si>
-  <si>
-    <t>2010-05</t>
-  </si>
-  <si>
-    <t>2010-04</t>
-  </si>
-  <si>
-    <t>2010-03</t>
-  </si>
-  <si>
-    <t>2010-02</t>
-  </si>
-  <si>
-    <t>2010-01</t>
-  </si>
-  <si>
-    <t>2009-12</t>
-  </si>
-  <si>
-    <t>2009-11</t>
-  </si>
-  <si>
-    <t>2009-10</t>
-  </si>
-  <si>
-    <t>2009-09</t>
-  </si>
-  <si>
-    <t>2009-08</t>
-  </si>
-  <si>
-    <t>2009-07</t>
-  </si>
-  <si>
-    <t>2009-06</t>
-  </si>
-  <si>
-    <t>2009-05</t>
-  </si>
-  <si>
-    <t>2009-04</t>
-  </si>
-  <si>
-    <t>2009-03</t>
-  </si>
-  <si>
-    <t>2009-02</t>
-  </si>
-  <si>
-    <t>2009-01</t>
-  </si>
-  <si>
-    <t>2008-12</t>
-  </si>
-  <si>
-    <t>2008-11</t>
-  </si>
-  <si>
-    <t>2008-10</t>
-  </si>
-  <si>
-    <t>2008-09</t>
-  </si>
-  <si>
-    <t>2008-08</t>
-  </si>
-  <si>
-    <t>2008-07</t>
-  </si>
-  <si>
-    <t>2008-06</t>
-  </si>
-  <si>
-    <t>2008-05</t>
-  </si>
-  <si>
-    <t>2008-04</t>
-  </si>
-  <si>
-    <t>2008-03</t>
-  </si>
-  <si>
-    <t>2008-02</t>
-  </si>
-  <si>
-    <t>2008-01</t>
-  </si>
-  <si>
-    <t>2007-12</t>
-  </si>
-  <si>
-    <t>2007-11</t>
-  </si>
-  <si>
-    <t>2007-10</t>
-  </si>
-  <si>
-    <t>2007-09</t>
-  </si>
-  <si>
-    <t>2007-08</t>
-  </si>
-  <si>
-    <t>2007-07</t>
-  </si>
-  <si>
-    <t>2007-06</t>
-  </si>
-  <si>
-    <t>2007-05</t>
-  </si>
-  <si>
-    <t>2007-04</t>
-  </si>
-  <si>
-    <t>2007-03</t>
-  </si>
-  <si>
-    <t>2007-02</t>
-  </si>
-  <si>
-    <t>2007-01</t>
-  </si>
-  <si>
-    <t>2006-12</t>
-  </si>
-  <si>
-    <t>2006-11</t>
-  </si>
-  <si>
-    <t>2006-10</t>
-  </si>
-  <si>
-    <t>2006-09</t>
-  </si>
-  <si>
-    <t>2006-08</t>
-  </si>
-  <si>
-    <t>2006-07</t>
-  </si>
-  <si>
-    <t>2006-06</t>
-  </si>
-  <si>
-    <t>2006-05</t>
-  </si>
-  <si>
-    <t>2006-04</t>
-  </si>
-  <si>
-    <t>2006-03</t>
-  </si>
-  <si>
-    <t>2006-02</t>
-  </si>
-  <si>
-    <t>2006-01</t>
-  </si>
-  <si>
-    <t>2005-12</t>
-  </si>
-  <si>
-    <t>2005-11</t>
-  </si>
-  <si>
-    <t>2005-10</t>
-  </si>
-  <si>
-    <t>2005-09</t>
-  </si>
-  <si>
-    <t>2005-08</t>
-  </si>
-  <si>
-    <t>2005-07</t>
-  </si>
-  <si>
-    <t>2005-06</t>
-  </si>
-  <si>
-    <t>2005-05</t>
-  </si>
-  <si>
-    <t>2005-04</t>
-  </si>
-  <si>
-    <t>2005-03</t>
-  </si>
-  <si>
-    <t>2005-02</t>
-  </si>
-  <si>
-    <t>2005-01</t>
-  </si>
-  <si>
-    <t>2004-12</t>
-  </si>
-  <si>
-    <t>2004-11</t>
-  </si>
-  <si>
-    <t>2004-10</t>
-  </si>
-  <si>
-    <t>2004-09</t>
-  </si>
-  <si>
-    <t>2004-08</t>
-  </si>
-  <si>
-    <t>2004-07</t>
-  </si>
-  <si>
-    <t>2004-06</t>
-  </si>
-  <si>
-    <t>2004-05</t>
-  </si>
-  <si>
-    <t>2004-04</t>
-  </si>
-  <si>
-    <t>2004-03</t>
-  </si>
-  <si>
-    <t>2004-02</t>
-  </si>
-  <si>
-    <t>2004-01</t>
-  </si>
-  <si>
     <t>URL</t>
   </si>
   <si>
@@ -751,89 +790,379 @@
   </si>
   <si>
     <t>https://static.telegraphindia.com/library/THE_TELEGRAPH/mig/media/images/2015/02/27/27regCD.jpg</t>
-  </si>
-  <si>
-    <t>Media Intervention</t>
-  </si>
-  <si>
-    <t>Political Move</t>
-  </si>
-  <si>
-    <t> Work on Subansiri Lower began</t>
-  </si>
-  <si>
-    <t>Public Unrest</t>
-  </si>
-  <si>
-    <t>Political Intervention</t>
-  </si>
-  <si>
-    <t>Actions Taken</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adviser,  AASU </t>
-  </si>
-  <si>
-    <t>Arunachal Pradesh is set to gain revenue from these projects, but Assam will be the victim if anything goes wrong</t>
-  </si>
-  <si>
-    <t>President, Dhemaji district AJYCP</t>
-  </si>
-  <si>
-    <t>We will continue our agitation in protest against such dam construction and the government will be responsible for any adverse situation for it</t>
-  </si>
-  <si>
-    <t>Court Judgement</t>
-  </si>
-  <si>
-    <t>Green tribunal quashes appeal to stall hydroelectric projects at Lower Subanisri </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -841,37 +1170,325 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1162,1191 +1779,1213 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="64.140625" customWidth="1"/>
+    <col min="1" max="1" width="64.1388888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="225" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" ht="187.2" spans="1:1">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="20.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="11.4444444444444" style="2"/>
+    <col min="2" max="2" width="20.4259259259259" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22.712962962963" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.1388888888889" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9.13888888888889" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>2005</v>
+    <row r="2" ht="28.8" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2005</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3">
+        <v>38480</v>
+      </c>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" ht="61.5" customHeight="1" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3">
+        <v>38481</v>
+      </c>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" ht="89.25" customHeight="1" spans="1:4">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2006</v>
-      </c>
       <c r="B4" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>2006</v>
+        <v>9</v>
+      </c>
+      <c r="C4" s="3">
+        <v>38874</v>
+      </c>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" ht="106.5" customHeight="1" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3">
+        <v>38874</v>
+      </c>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" ht="129" customHeight="1" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3">
+        <v>38877</v>
+      </c>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" ht="86.4" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="3">
+        <v>40306</v>
+      </c>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" ht="158.4" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="3">
+        <v>41160</v>
+      </c>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" ht="100.8" spans="1:4">
+      <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="129" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>2006</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>2010</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="150" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>2012</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>2012</v>
-      </c>
       <c r="B9" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>2015</v>
+        <v>15</v>
+      </c>
+      <c r="C9" s="3">
+        <v>41194</v>
+      </c>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" ht="86.4" spans="1:4">
+      <c r="A10" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>2015</v>
+        <v>16</v>
+      </c>
+      <c r="C10" s="3">
+        <v>42075</v>
+      </c>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" ht="72" spans="1:4">
+      <c r="A11" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>2018</v>
+        <v>17</v>
+      </c>
+      <c r="C11" s="3">
+        <v>42133</v>
+      </c>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" ht="43.2" spans="1:4">
+      <c r="A12" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>2018</v>
+        <v>18</v>
+      </c>
+      <c r="C12" s="3">
+        <v>43258</v>
+      </c>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" ht="57.6" spans="1:4">
+      <c r="A13" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C14"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C15" s="6"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C16" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="C13" s="3">
+        <v>43260</v>
+      </c>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14"/>
+    </row>
+    <row r="15" spans="3:3">
+      <c r="C15" s="5"/>
+    </row>
+    <row r="16" spans="3:3">
+      <c r="C16" s="6"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="37" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="13.712962962963" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.4259259259259" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.13888888888889" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>255</v>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" ht="43.2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" ht="57.6" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>249</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B2">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B3">
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B4">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B5">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G197" sqref="G197"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>251</v>
+        <v>68</v>
       </c>
       <c r="B1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>239</v>
+        <v>69</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>238</v>
+        <v>70</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>237</v>
+        <v>71</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>236</v>
+        <v>72</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>235</v>
+        <v>73</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>234</v>
+        <v>74</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>233</v>
+        <v>75</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>232</v>
+        <v>76</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>231</v>
+        <v>77</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>230</v>
+        <v>78</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>229</v>
+        <v>79</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>228</v>
+        <v>80</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>227</v>
+        <v>81</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>226</v>
+        <v>82</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>225</v>
+        <v>83</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>224</v>
+        <v>84</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>223</v>
+        <v>85</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>222</v>
+        <v>86</v>
       </c>
       <c r="B19">
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>221</v>
+        <v>87</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>220</v>
+        <v>88</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>219</v>
+        <v>89</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>218</v>
+        <v>90</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>217</v>
+        <v>91</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>216</v>
+        <v>92</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>215</v>
+        <v>93</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>214</v>
+        <v>94</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>213</v>
+        <v>95</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>212</v>
+        <v>96</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>211</v>
+        <v>97</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>210</v>
+        <v>98</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>209</v>
+        <v>99</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>208</v>
+        <v>100</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>207</v>
+        <v>101</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>206</v>
+        <v>102</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>205</v>
+        <v>103</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>204</v>
+        <v>104</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>203</v>
+        <v>105</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>202</v>
+        <v>106</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>201</v>
+        <v>107</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>200</v>
+        <v>108</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>199</v>
+        <v>109</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>198</v>
+        <v>110</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>197</v>
+        <v>111</v>
       </c>
       <c r="B44">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>196</v>
+        <v>112</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>195</v>
+        <v>113</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>194</v>
+        <v>114</v>
       </c>
       <c r="B47">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>193</v>
+        <v>115</v>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>192</v>
+        <v>116</v>
       </c>
       <c r="B49">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>191</v>
+        <v>117</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>190</v>
+        <v>118</v>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>189</v>
+        <v>119</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>188</v>
+        <v>120</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>187</v>
+        <v>121</v>
       </c>
       <c r="B54">
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>186</v>
+        <v>122</v>
       </c>
       <c r="B55">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>185</v>
+        <v>123</v>
       </c>
       <c r="B56">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>184</v>
+        <v>124</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>183</v>
+        <v>125</v>
       </c>
       <c r="B58">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>182</v>
+        <v>126</v>
       </c>
       <c r="B59">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>181</v>
+        <v>127</v>
       </c>
       <c r="B60">
         <v>24</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>180</v>
+        <v>128</v>
       </c>
       <c r="B61">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>179</v>
+        <v>129</v>
       </c>
       <c r="B62">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>178</v>
+        <v>130</v>
       </c>
       <c r="B63">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>177</v>
+        <v>131</v>
       </c>
       <c r="B64">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>176</v>
+        <v>132</v>
       </c>
       <c r="B65">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>175</v>
+        <v>133</v>
       </c>
       <c r="B66">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>174</v>
+        <v>134</v>
       </c>
       <c r="B67">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>173</v>
+        <v>135</v>
       </c>
       <c r="B68">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>172</v>
+        <v>136</v>
       </c>
       <c r="B69">
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>171</v>
+        <v>137</v>
       </c>
       <c r="B70">
         <v>36</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="B71">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="B72">
         <v>35</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>168</v>
+        <v>140</v>
       </c>
       <c r="B73">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="B74">
         <v>17</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="B75">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="B76">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="B77">
         <v>16</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="B78">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="B79">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="B80">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="B81">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="B82">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B83">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B84">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B85">
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B86">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2">
       <c r="A87" t="s">
         <v>154</v>
       </c>
@@ -2354,824 +2993,827 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B88">
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B89">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B90">
         <v>15</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="B91">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="B92">
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="B93">
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="B94">
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="B95">
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="B96">
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="B97">
         <v>24</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="B98">
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>142</v>
+        <v>166</v>
       </c>
       <c r="B99">
         <v>20</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="B100">
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>140</v>
+        <v>168</v>
       </c>
       <c r="B101">
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="B102">
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="B103">
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>137</v>
+        <v>171</v>
       </c>
       <c r="B104">
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="B105">
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="B106">
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c r="B107">
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>133</v>
+        <v>175</v>
       </c>
       <c r="B108">
         <v>6</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>132</v>
+        <v>176</v>
       </c>
       <c r="B109">
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>131</v>
+        <v>177</v>
       </c>
       <c r="B110">
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>130</v>
+        <v>178</v>
       </c>
       <c r="B111">
         <v>6</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>129</v>
+        <v>179</v>
       </c>
       <c r="B112">
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>128</v>
+        <v>180</v>
       </c>
       <c r="B113">
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>127</v>
+        <v>181</v>
       </c>
       <c r="B114">
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>126</v>
+        <v>182</v>
       </c>
       <c r="B115">
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>125</v>
+        <v>183</v>
       </c>
       <c r="B116">
         <v>9</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>124</v>
+        <v>184</v>
       </c>
       <c r="B117">
         <v>6</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>123</v>
+        <v>185</v>
       </c>
       <c r="B118">
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>122</v>
+        <v>186</v>
       </c>
       <c r="B119">
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>121</v>
+        <v>187</v>
       </c>
       <c r="B120">
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>120</v>
+        <v>188</v>
       </c>
       <c r="B121">
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>119</v>
+        <v>189</v>
       </c>
       <c r="B122">
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>118</v>
+        <v>190</v>
       </c>
       <c r="B123">
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>117</v>
+        <v>191</v>
       </c>
       <c r="B124">
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>116</v>
+        <v>192</v>
       </c>
       <c r="B125">
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>115</v>
+        <v>193</v>
       </c>
       <c r="B126">
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>114</v>
+        <v>194</v>
       </c>
       <c r="B127">
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>113</v>
+        <v>195</v>
       </c>
       <c r="B128">
         <v>7</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>112</v>
+        <v>196</v>
       </c>
       <c r="B129">
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>111</v>
+        <v>197</v>
       </c>
       <c r="B130">
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>110</v>
+        <v>198</v>
       </c>
       <c r="B131">
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>109</v>
+        <v>199</v>
       </c>
       <c r="B132">
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>108</v>
+        <v>200</v>
       </c>
       <c r="B133">
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>107</v>
+        <v>201</v>
       </c>
       <c r="B134">
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>106</v>
+        <v>202</v>
       </c>
       <c r="B135">
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>105</v>
+        <v>203</v>
       </c>
       <c r="B136">
         <v>5</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>104</v>
+        <v>204</v>
       </c>
       <c r="B137">
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>103</v>
+        <v>205</v>
       </c>
       <c r="B138">
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>102</v>
+        <v>206</v>
       </c>
       <c r="B139">
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>101</v>
+        <v>207</v>
       </c>
       <c r="B140">
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>100</v>
+        <v>208</v>
       </c>
       <c r="B141">
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>99</v>
+        <v>209</v>
       </c>
       <c r="B142">
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>98</v>
+        <v>210</v>
       </c>
       <c r="B143">
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>97</v>
+        <v>211</v>
       </c>
       <c r="B144">
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>96</v>
+        <v>212</v>
       </c>
       <c r="B145">
         <v>8</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>95</v>
+        <v>213</v>
       </c>
       <c r="B146">
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>94</v>
+        <v>214</v>
       </c>
       <c r="B147">
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>93</v>
+        <v>215</v>
       </c>
       <c r="B148">
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>92</v>
+        <v>216</v>
       </c>
       <c r="B149">
         <v>5</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>91</v>
+        <v>217</v>
       </c>
       <c r="B150">
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>90</v>
+        <v>218</v>
       </c>
       <c r="B151">
         <v>7</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>89</v>
+        <v>219</v>
       </c>
       <c r="B152">
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>88</v>
+        <v>220</v>
       </c>
       <c r="B153">
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>87</v>
+        <v>221</v>
       </c>
       <c r="B154">
         <v>7</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>86</v>
+        <v>222</v>
       </c>
       <c r="B155">
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>85</v>
+        <v>223</v>
       </c>
       <c r="B156">
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>84</v>
+        <v>224</v>
       </c>
       <c r="B157">
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>83</v>
+        <v>225</v>
       </c>
       <c r="B158">
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>82</v>
+        <v>226</v>
       </c>
       <c r="B159">
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>81</v>
+        <v>227</v>
       </c>
       <c r="B160">
         <v>5</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>80</v>
+        <v>228</v>
       </c>
       <c r="B161">
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>79</v>
+        <v>229</v>
       </c>
       <c r="B162">
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>78</v>
+        <v>230</v>
       </c>
       <c r="B163">
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2">
       <c r="A164" t="s">
-        <v>77</v>
+        <v>231</v>
       </c>
       <c r="B164">
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>76</v>
+        <v>232</v>
       </c>
       <c r="B165">
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>75</v>
+        <v>233</v>
       </c>
       <c r="B166">
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2">
       <c r="A167" t="s">
-        <v>74</v>
+        <v>234</v>
       </c>
       <c r="B167">
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2">
       <c r="A168" t="s">
-        <v>73</v>
+        <v>235</v>
       </c>
       <c r="B168">
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2">
       <c r="A169" t="s">
-        <v>72</v>
+        <v>236</v>
       </c>
       <c r="B169">
         <v>5</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2">
       <c r="A170" t="s">
-        <v>71</v>
+        <v>237</v>
       </c>
       <c r="B170">
         <v>2</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2">
       <c r="A171" t="s">
-        <v>70</v>
+        <v>238</v>
       </c>
       <c r="B171">
         <v>4</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2">
       <c r="A172" t="s">
-        <v>69</v>
+        <v>239</v>
       </c>
       <c r="B172">
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2">
       <c r="A173" t="s">
-        <v>68</v>
+        <v>240</v>
       </c>
       <c r="B173">
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2">
       <c r="A174" t="s">
-        <v>67</v>
+        <v>241</v>
       </c>
       <c r="B174">
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2">
       <c r="A175" t="s">
-        <v>66</v>
+        <v>242</v>
       </c>
       <c r="B175">
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2">
       <c r="A176" t="s">
-        <v>65</v>
+        <v>243</v>
       </c>
       <c r="B176">
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2">
       <c r="A177" t="s">
-        <v>64</v>
+        <v>244</v>
       </c>
       <c r="B177">
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2">
       <c r="A178" t="s">
-        <v>63</v>
+        <v>245</v>
       </c>
       <c r="B178">
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2">
       <c r="A179" t="s">
-        <v>62</v>
+        <v>246</v>
       </c>
       <c r="B179">
         <v>9</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>61</v>
+        <v>247</v>
       </c>
       <c r="B180">
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2">
       <c r="A181" t="s">
-        <v>60</v>
+        <v>248</v>
       </c>
       <c r="B181">
         <v>3</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2">
       <c r="A182" t="s">
-        <v>59</v>
+        <v>249</v>
       </c>
       <c r="B182">
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2">
       <c r="A183" t="s">
-        <v>58</v>
+        <v>250</v>
       </c>
       <c r="B183">
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2">
       <c r="A184" t="s">
-        <v>57</v>
+        <v>251</v>
       </c>
       <c r="B184">
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2">
       <c r="A185" t="s">
-        <v>56</v>
+        <v>252</v>
       </c>
       <c r="B185">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="130.42578125" customWidth="1"/>
+    <col min="1" max="1" width="130.425925925926" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>